--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1569065.4985905</v>
+        <v>-1571015.724419061</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>531406.2924636446</v>
+        <v>82740.66567597672</v>
       </c>
     </row>
     <row r="8">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>1.111016296638186</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>108.9701216524068</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>146.5840649587251</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>230.2634979541061</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>201.5947127757508</v>
       </c>
       <c r="E5" t="n">
-        <v>315.4364634220163</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -947,16 +947,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>173.7001491014861</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>201.330287938294</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>219.611696096712</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>239.8145926667187</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>54.6650959581362</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>201.089163843681</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505273959</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>47.27820527287264</v>
+        <v>167.2468210986288</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>49.73798017476065</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>3.512111383479434</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,10 +1774,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1816,16 +1816,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>200.5701849660527</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1853,16 +1853,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>157.6718707735979</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -2053,22 +2053,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>40.38113011422054</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>203.5330926723469</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>142.5505026023276</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2485,13 +2485,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>110.392360514622</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E28" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692903</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G28" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I28" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2779,7 +2779,7 @@
         <v>157.5777652593965</v>
       </c>
       <c r="Y28" t="n">
-        <v>150.4527632224548</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692903</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G31" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I31" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415277</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373689</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
         <v>80.78193823789549</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>77.28915789329056</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
         <v>80.78193823789545</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789542</v>
       </c>
       <c r="I46" t="n">
         <v>42.2873553346313</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1749.341643278937</v>
+        <v>549.649320534154</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>549.649320534154</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>549.649320534154</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>549.649320534154</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2355.87208391096</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2102.110298549051</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2102.110298549051</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1749.341643278937</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1749.341643278937</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1749.341643278937</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,16 +4407,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1309.206655608311</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="C5" t="n">
-        <v>1309.206655608311</v>
+        <v>1567.184413686502</v>
       </c>
       <c r="D5" t="n">
-        <v>950.9409570015605</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4595,22 +4595,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>2048.575150942547</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W5" t="n">
-        <v>1695.806495672433</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="X5" t="n">
-        <v>1695.806495672433</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="Y5" t="n">
-        <v>1695.806495672433</v>
+        <v>1936.146930626913</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,43 +4644,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>113.6371076753678</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>368.8844281164663</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>773.5003462121382</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1297.647259770169</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1851.37379586972</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>404.5276295785111</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>404.5276295785111</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>404.5276295785111</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W7" t="n">
-        <v>404.5276295785111</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X7" t="n">
-        <v>404.5276295785111</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.5276295785111</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1791.109440255352</v>
+        <v>1409.658350833668</v>
       </c>
       <c r="C8" t="n">
-        <v>1422.14692331494</v>
+        <v>1040.695833893257</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>682.4301352865061</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>296.6418826882619</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>289.6963819390584</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>275.7729778776493</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4835,19 +4835,19 @@
         <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2181.248772231163</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2181.248772231163</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W8" t="n">
-        <v>2181.248772231163</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X8" t="n">
-        <v>2181.248772231163</v>
+        <v>1796.25819089779</v>
       </c>
       <c r="Y8" t="n">
-        <v>1791.109440255352</v>
+        <v>1796.25819089779</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>109.1602504649465</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>109.1602504649465</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>109.1602504649465</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>109.1602504649465</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>109.1602504649465</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>109.1602504649465</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="V10" t="n">
-        <v>525.0086166875648</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="W10" t="n">
-        <v>235.5914466506042</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="X10" t="n">
-        <v>235.5914466506042</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>290.8087152951862</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5042,13 +5042,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5066,25 +5066,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>1288.325632214049</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M12" t="n">
-        <v>1608.660951743751</v>
+        <v>1224.726987855212</v>
       </c>
       <c r="N12" t="n">
-        <v>1953.181607381369</v>
+        <v>2029.138566119362</v>
       </c>
       <c r="O12" t="n">
-        <v>2201.935021465331</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>144.9728543621774</v>
+        <v>711.3743239205539</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>542.438140992646</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5200,49 +5200,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688031</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799323</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471151</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974663</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980059</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585742</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557898</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119724</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119724</v>
+        <v>1337.600783104818</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119724</v>
+        <v>1113.815367894324</v>
       </c>
       <c r="U13" t="n">
-        <v>1098.712528333282</v>
+        <v>1113.815367894324</v>
       </c>
       <c r="V13" t="n">
-        <v>844.028040127395</v>
+        <v>1113.815367894324</v>
       </c>
       <c r="W13" t="n">
-        <v>554.6108700904344</v>
+        <v>1113.815367894324</v>
       </c>
       <c r="X13" t="n">
-        <v>326.6213191924171</v>
+        <v>1113.815367894324</v>
       </c>
       <c r="Y13" t="n">
-        <v>326.6213191924171</v>
+        <v>893.0227887507937</v>
       </c>
     </row>
     <row r="14">
@@ -5267,40 +5267,40 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>327.180197328635</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M15" t="n">
-        <v>754.998473976564</v>
+        <v>1224.726987855212</v>
       </c>
       <c r="N15" t="n">
-        <v>1559.410052240715</v>
+        <v>2029.138566119363</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>415.8299478944155</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5464,22 +5464,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>1187.92115703528</v>
+        <v>761.5395953944297</v>
       </c>
       <c r="V16" t="n">
-        <v>933.2366688293934</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="W16" t="n">
-        <v>643.8194987924328</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X16" t="n">
-        <v>415.8299478944155</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y16" t="n">
-        <v>415.8299478944155</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
@@ -5531,34 +5531,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>508.1073603047985</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L18" t="n">
-        <v>1122.004430061687</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M18" t="n">
-        <v>1463.642810687059</v>
+        <v>1082.02560600166</v>
       </c>
       <c r="N18" t="n">
-        <v>1808.163466324677</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>985.400123145958</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="C19" t="n">
-        <v>816.4639402180511</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="D19" t="n">
-        <v>666.3473008057153</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E19" t="n">
-        <v>518.4342072233222</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F19" t="n">
-        <v>518.4342072233222</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5701,22 +5701,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1347.052146802333</v>
       </c>
       <c r="U19" t="n">
-        <v>1387.841167119728</v>
+        <v>1057.923508015892</v>
       </c>
       <c r="V19" t="n">
-        <v>1387.841167119728</v>
+        <v>1057.923508015892</v>
       </c>
       <c r="W19" t="n">
-        <v>1387.841167119728</v>
+        <v>768.5063379789311</v>
       </c>
       <c r="X19" t="n">
-        <v>1387.841167119728</v>
+        <v>540.5167870809138</v>
       </c>
       <c r="Y19" t="n">
-        <v>1167.048587976198</v>
+        <v>540.5167870809138</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571608</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L21" t="n">
-        <v>1288.325632214049</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="M21" t="n">
-        <v>1288.325632214049</v>
+        <v>1197.770682899239</v>
       </c>
       <c r="N21" t="n">
-        <v>1808.163466324677</v>
+        <v>1542.291338536857</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2211.755099839516</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2394.398577452867</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>982.3321745379599</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V22" t="n">
-        <v>727.647686332073</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W22" t="n">
-        <v>727.647686332073</v>
+        <v>755.183133481126</v>
       </c>
       <c r="X22" t="n">
-        <v>499.6581354340557</v>
+        <v>611.1927268121082</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905255</v>
+        <v>390.4001476685781</v>
       </c>
     </row>
     <row r="23">
@@ -5963,55 +5963,55 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231263</v>
@@ -6020,19 +6020,19 @@
         <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.325632214049</v>
+        <v>1026.585720682179</v>
       </c>
       <c r="M24" t="n">
-        <v>2056.693778606511</v>
+        <v>1346.921040211881</v>
       </c>
       <c r="N24" t="n">
-        <v>2623.573505376138</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O24" t="n">
-        <v>2623.573505376138</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028583</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028583</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028583</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028583</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>1387.408835694648</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>1132.724347488761</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>843.3071774518004</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028583</v>
+        <v>615.317626553783</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028583</v>
+        <v>394.5250474102529</v>
       </c>
     </row>
     <row r="26">
@@ -6221,10 +6221,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514081</v>
@@ -6242,13 +6242,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L27" t="n">
-        <v>1288.325632214049</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M27" t="n">
-        <v>2056.693778606511</v>
+        <v>1323.128242957076</v>
       </c>
       <c r="N27" t="n">
-        <v>2623.573505376138</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O27" t="n">
-        <v>2623.573505376138</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P27" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C28" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506724</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E28" t="n">
         <v>398.9545963083204</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G28" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H28" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>177.05035515254</v>
@@ -6427,7 +6427,7 @@
         <v>924.261101004521</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.2886129010313</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="29">
@@ -6440,49 +6440,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6540,28 +6540,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>489.1794537969272</v>
       </c>
       <c r="L30" t="n">
-        <v>1288.325632214049</v>
+        <v>719.1425596652764</v>
       </c>
       <c r="M30" t="n">
-        <v>2056.693778606511</v>
+        <v>1039.477879194978</v>
       </c>
       <c r="N30" t="n">
-        <v>2623.573505376138</v>
+        <v>1843.889457459129</v>
       </c>
       <c r="O30" t="n">
-        <v>2623.573505376138</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C31" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506724</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E31" t="n">
         <v>398.9545963083204</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G31" t="n">
         <v>221.5295092103129</v>
@@ -6643,7 +6643,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R31" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S31" t="n">
         <v>1865.165908942116</v>
@@ -6655,16 +6655,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W31" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045204</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010313</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6692,16 +6692,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6716,34 +6716,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
         <v>358.2718071316295</v>
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028587</v>
+        <v>493.5013994809973</v>
       </c>
       <c r="M33" t="n">
-        <v>334.2881267578673</v>
+        <v>813.8367190106992</v>
       </c>
       <c r="N33" t="n">
-        <v>1138.699705022018</v>
+        <v>1618.24829727485</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6813,7 +6813,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
         <v>1571.258395043133</v>
@@ -6835,25 +6835,25 @@
         <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6898,7 +6898,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
         <v>772.2886129010317</v>
@@ -6914,31 +6914,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6953,31 +6953,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028584</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028584</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M36" t="n">
-        <v>334.2881267578673</v>
+        <v>1387.227105931296</v>
       </c>
       <c r="N36" t="n">
-        <v>1138.699705022018</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108322</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229663</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506716</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083198</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504505</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862496</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045198</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010308</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="38">
@@ -7163,7 +7163,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822463</v>
@@ -7172,10 +7172,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7193,7 +7193,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
         <v>358.2718071316295</v>
@@ -7254,25 +7254,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571608</v>
+        <v>419.7848952835978</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.325632214049</v>
+        <v>649.7480011519469</v>
       </c>
       <c r="M39" t="n">
-        <v>2056.693778606511</v>
+        <v>970.0833206816487</v>
       </c>
       <c r="N39" t="n">
-        <v>2623.573505376138</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O39" t="n">
-        <v>2623.573505376138</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P39" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7287,7 +7287,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7315,13 +7315,13 @@
         <v>478.0475988506721</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103123</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982967</v>
@@ -7333,10 +7333,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,10 +7354,10 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,19 +7400,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7433,28 +7433,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7464,52 +7464,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028587</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028587</v>
+        <v>1010.443700555921</v>
       </c>
       <c r="M42" t="n">
-        <v>334.2881267578673</v>
+        <v>1330.779020085623</v>
       </c>
       <c r="N42" t="n">
-        <v>1138.699705022018</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7524,7 +7524,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
         <v>1571.258395043133</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>3481.793971740469</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>3381.677879852603</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>3300.381331480309</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>3221.288328937957</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>3143.218472480088</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>3043.863241839949</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>2962.265324427934</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>2919.550824089922</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>2999.384087782176</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>3217.020063255132</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>3532.182679494606</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>3871.199993490132</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>4209.194673746024</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>4510.520222979765</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>4754.570558813792</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>4818.599560616159</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>4687.499641571752</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>4532.5343174013</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>4312.225769654899</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>4126.361372489053</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>3905.764293492133</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>3746.594833634157</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>3594.622345530668</v>
       </c>
     </row>
     <row r="44">
@@ -7646,10 +7646,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
         <v>358.2718071316295</v>
@@ -7725,25 +7725,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028587</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028587</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M45" t="n">
-        <v>323.6581146605672</v>
+        <v>939.1942790685366</v>
       </c>
       <c r="N45" t="n">
-        <v>1128.069692924718</v>
+        <v>1743.605857332687</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>2413.069618635347</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2413.069618635347</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7761,7 +7761,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
         <v>1571.258395043133</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.460239110834</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229682</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506736</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083216</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504523</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103138</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7807,49 +7807,49 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045217</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010326</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9027,7 +9027,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9255,7 +9255,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9264,7 +9264,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,19 +9480,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9501,7 +9501,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9729,13 +9729,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9966,13 +9966,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298298</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10203,10 +10203,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298389</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,10 +10431,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10449,7 +10449,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10665,13 +10665,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298389</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10914,13 +10914,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298389</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,19 +11139,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11160,7 +11160,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,13 +11376,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11391,7 +11391,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22553,10 +22553,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.765029445073251</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>107.478198705251</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>88.96157071167015</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22714,7 +22714,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22723,10 +22723,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.76327893647938</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22759,13 +22759,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>56.2595003824849</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>119.9686158257552</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,25 +23464,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>148.1828298088426</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>163.7347097151484</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,10 +23662,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23704,16 +23704,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>85.66716743252465</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>8.821697689779711</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23941,22 +23941,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>181.1664309441687</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24145,7 +24145,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>82.70425972623045</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>83.15915278670951</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24373,13 +24373,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24412,13 +24412,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>175.8449918839554</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>-6.608047442568932e-13</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>77466.06243016744</v>
+        <v>77466.06243016741</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.1769864283</v>
+        <v>82104.17698642833</v>
       </c>
       <c r="D2" t="n">
         <v>82104.17698642831</v>
       </c>
       <c r="E2" t="n">
+        <v>78205.8119475417</v>
+      </c>
+      <c r="F2" t="n">
+        <v>78205.81194754179</v>
+      </c>
+      <c r="G2" t="n">
+        <v>78205.81194754175</v>
+      </c>
+      <c r="H2" t="n">
+        <v>78205.81194754173</v>
+      </c>
+      <c r="I2" t="n">
         <v>78205.81194754178</v>
       </c>
-      <c r="F2" t="n">
-        <v>78205.81194754176</v>
-      </c>
-      <c r="G2" t="n">
-        <v>78205.81194754173</v>
-      </c>
-      <c r="H2" t="n">
-        <v>78205.81194754176</v>
-      </c>
-      <c r="I2" t="n">
-        <v>78205.81194754173</v>
-      </c>
       <c r="J2" t="n">
-        <v>82104.17698642843</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="K2" t="n">
-        <v>82104.17698642846</v>
+        <v>82104.17698642849</v>
       </c>
       <c r="L2" t="n">
+        <v>82104.17698642833</v>
+      </c>
+      <c r="M2" t="n">
+        <v>82104.17698642837</v>
+      </c>
+      <c r="N2" t="n">
         <v>82104.1769864284</v>
       </c>
-      <c r="M2" t="n">
-        <v>82104.17698642844</v>
-      </c>
-      <c r="N2" t="n">
-        <v>82104.17698642846</v>
-      </c>
       <c r="O2" t="n">
-        <v>82104.17698642843</v>
+        <v>82104.17698642841</v>
       </c>
       <c r="P2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.1769864284</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>54505.51210371254</v>
+        <v>54505.51210371237</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.529651854070835e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>112586.3083663467</v>
+        <v>112586.3083663466</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758692</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
-        <v>787.793690575921</v>
+        <v>787.7936905758411</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905759236</v>
+        <v>787.7936905758436</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905759183</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>23206.58093189642</v>
+        <v>23206.58093189638</v>
       </c>
       <c r="K4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189638</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.5809318964</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="N4" t="n">
         <v>23206.58093189636</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189638</v>
       </c>
       <c r="P4" t="n">
         <v>23206.58093189636</v>
@@ -26482,31 +26482,31 @@
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="K5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.1058200254</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.10582002538</v>
       </c>
       <c r="N5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
         <v>97715.1058200254</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-707947.203214133</v>
+        <v>-708063.1560780397</v>
       </c>
       <c r="C6" t="n">
-        <v>-139814.0402576003</v>
+        <v>-139814.0402576002</v>
       </c>
       <c r="D6" t="n">
-        <v>-139814.0402576003</v>
+        <v>-139814.0402576002</v>
       </c>
       <c r="E6" t="n">
-        <v>-539729.3441686466</v>
+        <v>-539826.8032946191</v>
       </c>
       <c r="F6" t="n">
-        <v>-14569.30769175074</v>
+        <v>-14666.76681772288</v>
       </c>
       <c r="G6" t="n">
-        <v>-14569.30769175082</v>
+        <v>-14666.76681772289</v>
       </c>
       <c r="H6" t="n">
-        <v>-14569.30769175077</v>
+        <v>-14666.76681772295</v>
       </c>
       <c r="I6" t="n">
-        <v>-14569.30769175079</v>
+        <v>-14666.76681772289</v>
       </c>
       <c r="J6" t="n">
         <v>-269746.2410617989</v>
       </c>
       <c r="K6" t="n">
-        <v>-38817.50976549329</v>
+        <v>-38817.50976549326</v>
       </c>
       <c r="L6" t="n">
+        <v>-38817.50976549344</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-173618.5249993306</v>
+      </c>
+      <c r="N6" t="n">
         <v>-38817.50976549336</v>
       </c>
-      <c r="M6" t="n">
-        <v>-173618.5249993304</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-38817.50976549331</v>
-      </c>
       <c r="O6" t="n">
-        <v>-93323.02186920587</v>
+        <v>-93323.02186920571</v>
       </c>
       <c r="P6" t="n">
-        <v>-38817.50976549338</v>
+        <v>-38817.50976549352</v>
       </c>
     </row>
   </sheetData>
@@ -26701,19 +26701,19 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964064</v>
@@ -26722,7 +26722,7 @@
         <v>68.13189012964068</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964069</v>
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26923,13 +26923,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27051,7 +27051,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27160,13 +27160,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,10 +27388,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>280.7695299667989</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>20.66275613990277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,10 +27546,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>21.43668025205761</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>153.0883288449322</v>
       </c>
       <c r="E5" t="n">
-        <v>66.49390665024549</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,16 +27667,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27819,16 +27819,16 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>51.33495635659821</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>24.37936745074313</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>104.3110766676451</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>11.40957484157056</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>101.505792883659</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,13 +28065,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>51.04847948014705</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28108,7 +28108,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.20792265079217e-12</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28272,7 +28272,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-1.723171768962981e-12</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="32">
@@ -29812,7 +29812,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30511,7 +30511,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>7.673861546209082e-13</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,25 +31118,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>132.99849770713</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>86.4344768999344</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31364,7 +31364,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>61.04368814949358</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31376,7 +31376,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>91.88325107529255</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
@@ -31385,7 +31385,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>50.44659727034981</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31610,31 +31610,31 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>162.4518126576413</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392695</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31759,40 +31759,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,10 +31832,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31844,31 +31844,31 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>83.85199691801336</v>
       </c>
       <c r="P12" t="n">
-        <v>241.4090972701575</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31932,7 +31932,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31944,10 +31944,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -32008,7 +32008,7 @@
         <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927196</v>
       </c>
       <c r="O14" t="n">
         <v>562.4526372540886</v>
@@ -32075,28 +32075,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>108.5686435537649</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>83.85199691801313</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358984</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>21.51824353097987</v>
+        <v>144.2740676092155</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32403,10 +32403,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>177.0880590636461</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458548</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>161.3943125352949</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32640,10 +32640,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647499</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,31 +32777,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358984</v>
+        <v>123.4283357138069</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -32810,13 +32810,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32877,10 +32877,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32944,40 +32944,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,43 +33017,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>224.6051223555648</v>
+        <v>107.9252528799043</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33117,7 +33117,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33129,10 +33129,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
         <v>0.08167695791351813</v>
@@ -33181,40 +33181,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,43 +33254,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>101.2965657842845</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358984</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33354,7 +33354,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33366,10 +33366,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
         <v>0.08167695791351813</v>
@@ -33418,40 +33418,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,13 +33491,13 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -33512,22 +33512,22 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855525</v>
+        <v>168.5622361295452</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33591,7 +33591,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33603,10 +33603,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
         <v>0.08167695791351813</v>
@@ -33655,40 +33655,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130947006</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,13 +33728,13 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -33743,28 +33743,28 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>384.2467489891734</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855525</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458548</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33828,7 +33828,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33840,10 +33840,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
         <v>0.08167695791351813</v>
@@ -33892,40 +33892,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647517</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,43 +33965,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>31.20105213445675</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358984</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34065,7 +34065,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34077,10 +34077,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
         <v>0.08167695791351813</v>
@@ -34129,40 +34129,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,19 +34202,19 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>107.1232648792028</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -34223,10 +34223,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855525</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458548</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
@@ -34238,7 +34238,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34302,7 +34302,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34314,10 +34314,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
         <v>0.08167695791351813</v>
@@ -34366,40 +34366,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,13 +34439,13 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -34460,13 +34460,13 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458548</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>131.7972890203658</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34475,7 +34475,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34539,7 +34539,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
@@ -34551,10 +34551,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
         <v>0.08167695791351813</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>60.29709682323572</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245897</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,16 +35258,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>335.1180717502984</v>
       </c>
       <c r="P12" t="n">
-        <v>425.8974584957645</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299065</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35656,7 +35656,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081129</v>
       </c>
       <c r="O14" t="n">
         <v>713.1546070951472</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>432.1396733817465</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>335.1180717502982</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>345.0892733589615</v>
+        <v>467.8450974371971</v>
       </c>
       <c r="N18" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>525.0887213238664</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>231.4898261851225</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>355.7143012373919</v>
       </c>
       <c r="M24" t="n">
-        <v>776.129440800466</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.129440800466</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>572.6057846157851</v>
+        <v>455.9259151401246</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36768,7 +36768,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P28" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q28" t="n">
         <v>107.3575901015154</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>227.9203638225041</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>776.129440800466</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37005,7 +37005,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q31" t="n">
         <v>107.3575901015154</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>239.4656922197792</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>419.8283109618303</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37233,7 +37233,7 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
         <v>341.4087679352443</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>732.2474112493936</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095691</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
-        <v>342.441731308613</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
         <v>341.4087679352442</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>157.8248501726763</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>776.129440800466</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37707,7 +37707,7 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
         <v>341.4087679352443</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>339.4092304027878</v>
       </c>
       <c r="M42" t="n">
-        <v>239.4656922197792</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37944,10 +37944,10 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
         <v>59.8253897034995</v>
@@ -38093,16 +38093,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>228.7283062629105</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
         <v>812.5369477415663</v>
@@ -38111,13 +38111,13 @@
         <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>201.8928026701934</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686862</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38181,7 +38181,7 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
         <v>341.4087679352443</v>
